--- a/xlsx/country_comparison/split_many_mean.xlsx
+++ b/xlsx/country_comparison/split_many_mean.xlsx
@@ -458,34 +458,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>21.5080269604717</v>
+        <v>24.559958862797</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5773464892771</v>
+        <v>23.0606642506197</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5682282737824</v>
+        <v>21.4813694844092</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7959183673469</v>
+        <v>22.156545876018</v>
       </c>
       <c r="F2" t="n">
-        <v>21.1643961452069</v>
+        <v>20.3859188451455</v>
       </c>
       <c r="G2" t="n">
-        <v>21.4977833340204</v>
+        <v>21.1358978352552</v>
       </c>
       <c r="H2" t="n">
-        <v>26.3549716126125</v>
+        <v>24.5940850477814</v>
       </c>
       <c r="I2" t="n">
-        <v>24.6749397784127</v>
+        <v>27.7253351575434</v>
       </c>
       <c r="J2" t="n">
-        <v>18.372454975129</v>
+        <v>19.4961599162497</v>
       </c>
       <c r="K2" t="n">
-        <v>25.9051139926949</v>
+        <v>21.9468868844526</v>
       </c>
     </row>
     <row r="3">
@@ -493,34 +493,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>27.2507988048922</v>
+        <v>27.0345688959869</v>
       </c>
       <c r="C3" t="n">
-        <v>20.0663955244216</v>
+        <v>25.5848594030944</v>
       </c>
       <c r="D3" t="n">
-        <v>24.7997012156308</v>
+        <v>30.350241729736</v>
       </c>
       <c r="E3" t="n">
-        <v>22.1523178807947</v>
+        <v>24.3925599159238</v>
       </c>
       <c r="F3" t="n">
-        <v>50.7200999951398</v>
+        <v>31.4619025957493</v>
       </c>
       <c r="G3" t="n">
-        <v>23.3590446963455</v>
+        <v>23.7060709813093</v>
       </c>
       <c r="H3" t="n">
-        <v>30.3180206856495</v>
+        <v>30.2576026831641</v>
       </c>
       <c r="I3" t="n">
-        <v>29.8277393921632</v>
+        <v>31.1884003696544</v>
       </c>
       <c r="J3" t="n">
-        <v>28.8099114066207</v>
+        <v>29.4319068054883</v>
       </c>
       <c r="K3" t="n">
-        <v>19.9378939251892</v>
+        <v>26.10303632985</v>
       </c>
     </row>
     <row r="4">
@@ -528,34 +528,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>24.5858674431306</v>
+        <v>21.8484041650867</v>
       </c>
       <c r="C4" t="n">
-        <v>19.2503183851778</v>
+        <v>18.7201844833661</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6723299281873</v>
+        <v>11.6576467038715</v>
       </c>
       <c r="E4" t="n">
-        <v>18.8106796116505</v>
+        <v>16.5848245395656</v>
       </c>
       <c r="F4" t="n">
-        <v>20.6293295172535</v>
+        <v>24.667517921388</v>
       </c>
       <c r="G4" t="n">
-        <v>22.696201509592</v>
+        <v>23.6264527017866</v>
       </c>
       <c r="H4" t="n">
-        <v>12.0108822875524</v>
+        <v>14.0823757387007</v>
       </c>
       <c r="I4" t="n">
-        <v>7.77852531572167</v>
+        <v>10.5877382031993</v>
       </c>
       <c r="J4" t="n">
-        <v>20.882716824453</v>
+        <v>19.6739771235746</v>
       </c>
       <c r="K4" t="n">
-        <v>24.8056999859449</v>
+        <v>16.8580070943311</v>
       </c>
     </row>
     <row r="5">
@@ -563,34 +563,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>21.6641217336874</v>
+        <v>20.0487966795408</v>
       </c>
       <c r="C5" t="n">
-        <v>17.8677919912498</v>
+        <v>16.940705544658</v>
       </c>
       <c r="D5" t="n">
-        <v>18.4758491688437</v>
+        <v>18.0218515334228</v>
       </c>
       <c r="E5" t="n">
-        <v>15.15625</v>
+        <v>20.2161813992159</v>
       </c>
       <c r="F5" t="n">
-        <v>20.7972272036427</v>
+        <v>16.6884951669991</v>
       </c>
       <c r="G5" t="n">
-        <v>18.5666259465258</v>
+        <v>18.1819586944497</v>
       </c>
       <c r="H5" t="n">
-        <v>14.6450792668689</v>
+        <v>15.5225765321848</v>
       </c>
       <c r="I5" t="n">
-        <v>14.294880347355</v>
+        <v>14.5557466553824</v>
       </c>
       <c r="J5" t="n">
-        <v>13.736100117406</v>
+        <v>16.5665567594167</v>
       </c>
       <c r="K5" t="n">
-        <v>23.0710666402065</v>
+        <v>20.2165419438272</v>
       </c>
     </row>
     <row r="6">
@@ -598,34 +598,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>22.7824526337216</v>
+        <v>22.5397964395834</v>
       </c>
       <c r="C6" t="n">
-        <v>17.0030893445321</v>
+        <v>17.4767528277856</v>
       </c>
       <c r="D6" t="n">
-        <v>16.1580371586541</v>
+        <v>17.6067350576389</v>
       </c>
       <c r="E6" t="n">
-        <v>17.2147651006711</v>
+        <v>12.5922182346523</v>
       </c>
       <c r="F6" t="n">
-        <v>24.0745639547035</v>
+        <v>16.3004874874625</v>
       </c>
       <c r="G6" t="n">
-        <v>18.3590741630199</v>
+        <v>17.8957243980259</v>
       </c>
       <c r="H6" t="n">
-        <v>20.4658463776994</v>
+        <v>17.9852819421678</v>
       </c>
       <c r="I6" t="n">
-        <v>14.5954330281653</v>
+        <v>14.978666071306</v>
       </c>
       <c r="J6" t="n">
-        <v>25.2329845871575</v>
+        <v>21.2135934423488</v>
       </c>
       <c r="K6" t="n">
-        <v>13.6064537169634</v>
+        <v>15.2951207236094</v>
       </c>
     </row>
     <row r="7">
@@ -633,34 +633,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>18.4671594114619</v>
+        <v>20.4000780431514</v>
       </c>
       <c r="C7" t="n">
-        <v>24.1124426155066</v>
+        <v>24.5167818647686</v>
       </c>
       <c r="D7" t="n">
-        <v>19.392260735996</v>
+        <v>23.4135356904085</v>
       </c>
       <c r="E7" t="n">
-        <v>27.9954954954955</v>
+        <v>27.3117548910524</v>
       </c>
       <c r="F7" t="n">
-        <v>15.7517155095681</v>
+        <v>21.9215861648137</v>
       </c>
       <c r="G7" t="n">
-        <v>18.3456343423812</v>
+        <v>18.5576144563842</v>
       </c>
       <c r="H7" t="n">
-        <v>25.9220820396979</v>
+        <v>24.1381785484046</v>
       </c>
       <c r="I7" t="n">
-        <v>23.6727731648457</v>
+        <v>28.1386816389689</v>
       </c>
       <c r="J7" t="n">
-        <v>21.2596724838637</v>
+        <v>20.378153244179</v>
       </c>
       <c r="K7" t="n">
-        <v>11.9047880057454</v>
+        <v>19.0157133929168</v>
       </c>
     </row>
     <row r="8">
@@ -668,34 +668,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8645929906311</v>
+        <v>17.8182260016967</v>
       </c>
       <c r="C8" t="n">
-        <v>18.2394444251462</v>
+        <v>18.1623842732294</v>
       </c>
       <c r="D8" t="n">
-        <v>18.573238642695</v>
+        <v>21.6595157684244</v>
       </c>
       <c r="E8" t="n">
-        <v>27.7743902439024</v>
+        <v>22.1370790022377</v>
       </c>
       <c r="F8" t="n">
-        <v>14.9855596726983</v>
+        <v>17.3539045247957</v>
       </c>
       <c r="G8" t="n">
-        <v>19.6930460129306</v>
+        <v>19.0867556899853</v>
       </c>
       <c r="H8" t="n">
-        <v>18.2066513345863</v>
+        <v>21.5394334882733</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9871113660273</v>
+        <v>21.5572463166282</v>
       </c>
       <c r="J8" t="n">
-        <v>22.1612760376041</v>
+        <v>21.9423755648614</v>
       </c>
       <c r="K8" t="n">
-        <v>25.5153632049087</v>
+        <v>20.0010851921587</v>
       </c>
     </row>
     <row r="9">
@@ -703,34 +703,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>15.5024496922726</v>
+        <v>16.9708350953503</v>
       </c>
       <c r="C9" t="n">
-        <v>29.9842762847868</v>
+        <v>25.6933765362199</v>
       </c>
       <c r="D9" t="n">
-        <v>25.8188255005789</v>
+        <v>21.8356566191897</v>
       </c>
       <c r="E9" t="n">
-        <v>23.7414965986395</v>
+        <v>23.0170831373469</v>
       </c>
       <c r="F9" t="n">
-        <v>17.9112218915831</v>
+        <v>19.3678582377588</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9699090827833</v>
+        <v>20.6635142839234</v>
       </c>
       <c r="H9" t="n">
-        <v>23.1381083038757</v>
+        <v>21.7345315653334</v>
       </c>
       <c r="I9" t="n">
-        <v>16.6094397960903</v>
+        <v>19.6852273135618</v>
       </c>
       <c r="J9" t="n">
-        <v>24.8758173039687</v>
+        <v>25.5536156130556</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2229077584518</v>
+        <v>25.4677694776118</v>
       </c>
     </row>
     <row r="10">
@@ -738,34 +738,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>16.5652869645243</v>
+        <v>18.3944125578147</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2207958121195</v>
+        <v>17.9572464929908</v>
       </c>
       <c r="D10" t="n">
-        <v>22.193036022558</v>
+        <v>19.9202255963559</v>
       </c>
       <c r="E10" t="n">
-        <v>24.7151898734177</v>
+        <v>28.4931105422793</v>
       </c>
       <c r="F10" t="n">
-        <v>27.5824647488534</v>
+        <v>21.4454067327495</v>
       </c>
       <c r="G10" t="n">
-        <v>17.6160097713001</v>
+        <v>16.9601330420816</v>
       </c>
       <c r="H10" t="n">
-        <v>11.5127774080462</v>
+        <v>14.7039396760257</v>
       </c>
       <c r="I10" t="n">
-        <v>27.7743861115836</v>
+        <v>25.7999423705069</v>
       </c>
       <c r="J10" t="n">
-        <v>18.1991131425976</v>
+        <v>17.0901128287191</v>
       </c>
       <c r="K10" t="n">
-        <v>20.5003807240189</v>
+        <v>22.6103741481264</v>
       </c>
     </row>
     <row r="11">
@@ -773,34 +773,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>16.2848451033568</v>
+        <v>17.0807429242204</v>
       </c>
       <c r="C11" t="n">
-        <v>21.3508917499082</v>
+        <v>18.1301185165159</v>
       </c>
       <c r="D11" t="n">
-        <v>22.5765955237255</v>
+        <v>20.5565333585276</v>
       </c>
       <c r="E11" t="n">
-        <v>12.9389312977099</v>
+        <v>13.8557038280747</v>
       </c>
       <c r="F11" t="n">
-        <v>21.9859580171948</v>
+        <v>21.8985082241482</v>
       </c>
       <c r="G11" t="n">
-        <v>22.1139436159633</v>
+        <v>22.1058503276506</v>
       </c>
       <c r="H11" t="n">
-        <v>31.0592974706112</v>
+        <v>23.409174384043</v>
       </c>
       <c r="I11" t="n">
-        <v>21.1044238959285</v>
+        <v>14.7531378395069</v>
       </c>
       <c r="J11" t="n">
-        <v>14.2709227464484</v>
+        <v>16.8300371526334</v>
       </c>
       <c r="K11" t="n">
-        <v>8.47543775203027</v>
+        <v>17.470200568159</v>
       </c>
     </row>
     <row r="12">
@@ -808,34 +808,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6937175446432</v>
+        <v>18.4405964992571</v>
       </c>
       <c r="C12" t="n">
-        <v>20.9581864262748</v>
+        <v>19.5032342531731</v>
       </c>
       <c r="D12" t="n">
-        <v>20.4844589264869</v>
+        <v>18.1340693000846</v>
       </c>
       <c r="E12" t="n">
-        <v>15.3525641025641</v>
+        <v>17.9074905953698</v>
       </c>
       <c r="F12" t="n">
-        <v>8.66685062745707</v>
+        <v>17.2802396808452</v>
       </c>
       <c r="G12" t="n">
-        <v>19.9199325351752</v>
+        <v>18.9822379577424</v>
       </c>
       <c r="H12" t="n">
-        <v>14.8935174766804</v>
+        <v>16.4092927572937</v>
       </c>
       <c r="I12" t="n">
-        <v>24.7886124764293</v>
+        <v>21.1349772681608</v>
       </c>
       <c r="J12" t="n">
-        <v>19.5096708545182</v>
+        <v>18.4656223614551</v>
       </c>
       <c r="K12" t="n">
-        <v>20.1255189160083</v>
+        <v>17.3339264592139</v>
       </c>
     </row>
     <row r="13">
@@ -843,34 +843,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>14.6051207447097</v>
+        <v>14.899947886219</v>
       </c>
       <c r="C13" t="n">
-        <v>15.4011919548442</v>
+        <v>16.9096404650099</v>
       </c>
       <c r="D13" t="n">
-        <v>16.9861337163861</v>
+        <v>17.8697720828647</v>
       </c>
       <c r="E13" t="n">
-        <v>12.463768115942</v>
+        <v>16.5063298627075</v>
       </c>
       <c r="F13" t="n">
-        <v>13.303278531438</v>
+        <v>14.976197956017</v>
       </c>
       <c r="G13" t="n">
-        <v>18.5919731097596</v>
+        <v>20.4540050075485</v>
       </c>
       <c r="H13" t="n">
-        <v>16.4164148295247</v>
+        <v>18.8106938394726</v>
       </c>
       <c r="I13" t="n">
-        <v>11.7176155702052</v>
+        <v>10.9954433093976</v>
       </c>
       <c r="J13" t="n">
-        <v>13.3730575369043</v>
+        <v>15.6095874202112</v>
       </c>
       <c r="K13" t="n">
-        <v>23.9191112229837</v>
+        <v>19.123101076186</v>
       </c>
     </row>
     <row r="14">
@@ -878,34 +878,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3663648262661</v>
+        <v>17.6077165370507</v>
       </c>
       <c r="C14" t="n">
-        <v>18.1304080191294</v>
+        <v>17.6368251732405</v>
       </c>
       <c r="D14" t="n">
-        <v>17.7913625196973</v>
+        <v>17.8625054580574</v>
       </c>
       <c r="E14" t="n">
-        <v>14.5779220779221</v>
+        <v>14.1104443525526</v>
       </c>
       <c r="F14" t="n">
-        <v>11.5557225515042</v>
+        <v>16.3025568937356</v>
       </c>
       <c r="G14" t="n">
-        <v>18.2370347174378</v>
+        <v>19.0113244531712</v>
       </c>
       <c r="H14" t="n">
-        <v>14.5775637127281</v>
+        <v>16.3120965369003</v>
       </c>
       <c r="I14" t="n">
-        <v>16.7275530739151</v>
+        <v>13.4188635575904</v>
       </c>
       <c r="J14" t="n">
-        <v>16.9301200548642</v>
+        <v>17.1452470883948</v>
       </c>
       <c r="K14" t="n">
-        <v>20.0254395219115</v>
+        <v>17.6301295558637</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_mean.xlsx
+++ b/xlsx/country_comparison/split_many_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,39 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Education and Healthcare in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Renewable energy and
+infrastructure to cope with climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Loss and Damage Fund (to
+rebuild after climate disasters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Forestation and biodiversity projects</t>
   </si>
   <si>
     <t xml:space="preserve">Domestic: Education and Research</t>
@@ -73,20 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">Domestic: Income tax reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Education and Healthcare in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Renewable energy and
-infrastructure to cope with climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Loss and Damage Fund (to
-rebuild after climate disasters)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Forestation and biodiversity projects</t>
   </si>
 </sst>
 </file>
@@ -452,460 +458,544 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>24.559958862797</v>
+        <v>18.5820802110275</v>
       </c>
       <c r="C2" t="n">
-        <v>23.0606642506197</v>
+        <v>19.5433388869069</v>
       </c>
       <c r="D2" t="n">
-        <v>21.4813694844092</v>
+        <v>17.1860296020143</v>
       </c>
       <c r="E2" t="n">
-        <v>22.156545876018</v>
+        <v>18.4088216404429</v>
       </c>
       <c r="F2" t="n">
-        <v>20.3859188451455</v>
+        <v>19.818563990037</v>
       </c>
       <c r="G2" t="n">
-        <v>21.1358978352552</v>
+        <v>22.3196671679238</v>
       </c>
       <c r="H2" t="n">
-        <v>24.5940850477814</v>
+        <v>24.1943763140344</v>
       </c>
       <c r="I2" t="n">
-        <v>27.7253351575434</v>
+        <v>18.3974341803098</v>
       </c>
       <c r="J2" t="n">
-        <v>19.4961599162497</v>
+        <v>20.9791784497811</v>
       </c>
       <c r="K2" t="n">
-        <v>21.9468868844526</v>
+        <v>14.7168447541269</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21.2906279684643</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18.8157927911583</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>27.0345688959869</v>
+        <v>18.2775615098406</v>
       </c>
       <c r="C3" t="n">
-        <v>25.5848594030944</v>
+        <v>18.6833061988999</v>
       </c>
       <c r="D3" t="n">
-        <v>30.350241729736</v>
+        <v>18.1032368372531</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3925599159238</v>
+        <v>19.9652665557326</v>
       </c>
       <c r="F3" t="n">
-        <v>31.4619025957493</v>
+        <v>18.4768491708055</v>
       </c>
       <c r="G3" t="n">
-        <v>23.7060709813093</v>
+        <v>17.2467117399754</v>
       </c>
       <c r="H3" t="n">
-        <v>30.2576026831641</v>
+        <v>16.210725726805</v>
       </c>
       <c r="I3" t="n">
-        <v>31.1884003696544</v>
+        <v>20.4222649809054</v>
       </c>
       <c r="J3" t="n">
-        <v>29.4319068054883</v>
+        <v>18.7170006502281</v>
       </c>
       <c r="K3" t="n">
-        <v>26.10303632985</v>
+        <v>17.7046170722847</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19.6336316839714</v>
+      </c>
+      <c r="M3" t="n">
+        <v>17.7105595537485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>21.8484041650867</v>
+        <v>16.7238653560827</v>
       </c>
       <c r="C4" t="n">
-        <v>18.7201844833661</v>
+        <v>16.4332355712248</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6576467038715</v>
+        <v>14.4237243458191</v>
       </c>
       <c r="E4" t="n">
-        <v>16.5848245395656</v>
+        <v>16.5958620189816</v>
       </c>
       <c r="F4" t="n">
-        <v>24.667517921388</v>
+        <v>18.1019870829628</v>
       </c>
       <c r="G4" t="n">
-        <v>23.6264527017866</v>
+        <v>14.2384576095474</v>
       </c>
       <c r="H4" t="n">
-        <v>14.0823757387007</v>
+        <v>19.3237941638536</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5877382031993</v>
+        <v>14.9129879392616</v>
       </c>
       <c r="J4" t="n">
-        <v>19.6739771235746</v>
+        <v>17.639977096944</v>
       </c>
       <c r="K4" t="n">
-        <v>16.8580070943311</v>
+        <v>15.9777699018776</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20.5511153680026</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16.7227830705548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>20.0487966795408</v>
+        <v>16.2417157402536</v>
       </c>
       <c r="C5" t="n">
-        <v>16.940705544658</v>
+        <v>17.2041871605458</v>
       </c>
       <c r="D5" t="n">
-        <v>18.0218515334228</v>
+        <v>17.4846630418904</v>
       </c>
       <c r="E5" t="n">
-        <v>20.2161813992159</v>
+        <v>18.7737072682762</v>
       </c>
       <c r="F5" t="n">
-        <v>16.6884951669991</v>
+        <v>18.0960670536168</v>
       </c>
       <c r="G5" t="n">
-        <v>18.1819586944497</v>
+        <v>17.1281660531501</v>
       </c>
       <c r="H5" t="n">
-        <v>15.5225765321848</v>
+        <v>14.9457121683135</v>
       </c>
       <c r="I5" t="n">
-        <v>14.5557466553824</v>
+        <v>16.2618759164225</v>
       </c>
       <c r="J5" t="n">
-        <v>16.5665567594167</v>
+        <v>16.9879596586077</v>
       </c>
       <c r="K5" t="n">
-        <v>20.2165419438272</v>
+        <v>14.0631639305587</v>
+      </c>
+      <c r="L5" t="n">
+        <v>19.2949694188511</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15.5582453607054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5397964395834</v>
+        <v>22.3896144998599</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4767528277856</v>
+        <v>22.7317034341977</v>
       </c>
       <c r="D6" t="n">
-        <v>17.6067350576389</v>
+        <v>23.9927139293264</v>
       </c>
       <c r="E6" t="n">
-        <v>12.5922182346523</v>
+        <v>23.4787506219993</v>
       </c>
       <c r="F6" t="n">
-        <v>16.3004874874625</v>
+        <v>22.7906243696566</v>
       </c>
       <c r="G6" t="n">
-        <v>17.8957243980259</v>
+        <v>20.4747556979299</v>
       </c>
       <c r="H6" t="n">
-        <v>17.9852819421678</v>
+        <v>24.6784518403319</v>
       </c>
       <c r="I6" t="n">
-        <v>14.978666071306</v>
+        <v>20.8503271126698</v>
       </c>
       <c r="J6" t="n">
-        <v>21.2135934423488</v>
+        <v>25.1837935240495</v>
       </c>
       <c r="K6" t="n">
-        <v>15.2951207236094</v>
+        <v>22.5860448319305</v>
+      </c>
+      <c r="L6" t="n">
+        <v>21.2819820906125</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22.0326679158818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>20.4000780431514</v>
+        <v>27.26497665342</v>
       </c>
       <c r="C7" t="n">
-        <v>24.5167818647686</v>
+        <v>28.8568129063177</v>
       </c>
       <c r="D7" t="n">
-        <v>23.4135356904085</v>
+        <v>27.8530039626451</v>
       </c>
       <c r="E7" t="n">
-        <v>27.3117548910524</v>
+        <v>25.9671435231096</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9215861648137</v>
+        <v>31.3186699436725</v>
       </c>
       <c r="G7" t="n">
-        <v>18.5576144563842</v>
+        <v>30.9301419837267</v>
       </c>
       <c r="H7" t="n">
-        <v>24.1381785484046</v>
+        <v>30.513854396749</v>
       </c>
       <c r="I7" t="n">
-        <v>28.1386816389689</v>
+        <v>29.8035024408927</v>
       </c>
       <c r="J7" t="n">
-        <v>20.378153244179</v>
+        <v>27.1748398222642</v>
       </c>
       <c r="K7" t="n">
-        <v>19.0157133929168</v>
+        <v>24.4232506772242</v>
+      </c>
+      <c r="L7" t="n">
+        <v>23.700071089594</v>
+      </c>
+      <c r="M7" t="n">
+        <v>26.8180514481533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8182260016967</v>
+        <v>18.2192321563112</v>
       </c>
       <c r="C8" t="n">
-        <v>18.1623842732294</v>
+        <v>17.1411131812487</v>
       </c>
       <c r="D8" t="n">
-        <v>21.6595157684244</v>
+        <v>19.1694727301227</v>
       </c>
       <c r="E8" t="n">
-        <v>22.1370790022377</v>
+        <v>17.7662467270977</v>
       </c>
       <c r="F8" t="n">
-        <v>17.3539045247957</v>
+        <v>10.4519979798116</v>
       </c>
       <c r="G8" t="n">
-        <v>19.0867556899853</v>
+        <v>23.1064936467365</v>
       </c>
       <c r="H8" t="n">
-        <v>21.5394334882733</v>
+        <v>14.1817876724621</v>
       </c>
       <c r="I8" t="n">
-        <v>21.5572463166282</v>
+        <v>19.2877752311098</v>
       </c>
       <c r="J8" t="n">
-        <v>21.9423755648614</v>
+        <v>16.7816546970272</v>
       </c>
       <c r="K8" t="n">
-        <v>20.0010851921587</v>
+        <v>16.8517310459241</v>
+      </c>
+      <c r="L8" t="n">
+        <v>23.1517843022227</v>
+      </c>
+      <c r="M8" t="n">
+        <v>19.584184449734</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>16.9708350953503</v>
+        <v>19.5996211281575</v>
       </c>
       <c r="C9" t="n">
-        <v>25.6933765362199</v>
+        <v>17.9211815959613</v>
       </c>
       <c r="D9" t="n">
-        <v>21.8356566191897</v>
+        <v>21.6602414793516</v>
       </c>
       <c r="E9" t="n">
-        <v>23.0170831373469</v>
+        <v>16.9019100517482</v>
       </c>
       <c r="F9" t="n">
-        <v>19.3678582377588</v>
+        <v>19.2197633419716</v>
       </c>
       <c r="G9" t="n">
-        <v>20.6635142839234</v>
+        <v>17.0340156614889</v>
       </c>
       <c r="H9" t="n">
-        <v>21.7345315653334</v>
+        <v>14.8151181271539</v>
       </c>
       <c r="I9" t="n">
-        <v>19.6852273135618</v>
+        <v>17.1095943053609</v>
       </c>
       <c r="J9" t="n">
-        <v>25.5536156130556</v>
+        <v>15.6647990283249</v>
       </c>
       <c r="K9" t="n">
-        <v>25.4677694776118</v>
+        <v>20.432296587161</v>
+      </c>
+      <c r="L9" t="n">
+        <v>17.4729152319607</v>
+      </c>
+      <c r="M9" t="n">
+        <v>21.6080362395842</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3944125578147</v>
+        <v>17.8023011308014</v>
       </c>
       <c r="C10" t="n">
-        <v>17.9572464929908</v>
+        <v>18.8833651056779</v>
       </c>
       <c r="D10" t="n">
-        <v>19.9202255963559</v>
+        <v>22.6596254964496</v>
       </c>
       <c r="E10" t="n">
-        <v>28.4931105422793</v>
+        <v>18.2068169134049</v>
       </c>
       <c r="F10" t="n">
-        <v>21.4454067327495</v>
+        <v>16.9757243079793</v>
       </c>
       <c r="G10" t="n">
-        <v>16.9601330420816</v>
+        <v>15.2541362207986</v>
       </c>
       <c r="H10" t="n">
-        <v>14.7039396760257</v>
+        <v>18.9087651573763</v>
       </c>
       <c r="I10" t="n">
-        <v>25.7999423705069</v>
+        <v>20.9889583093575</v>
       </c>
       <c r="J10" t="n">
-        <v>17.0901128287191</v>
+        <v>15.1781294395678</v>
       </c>
       <c r="K10" t="n">
-        <v>22.6103741481264</v>
+        <v>12.6212552742962</v>
+      </c>
+      <c r="L10" t="n">
+        <v>17.6571262524162</v>
+      </c>
+      <c r="M10" t="n">
+        <v>18.4019498076807</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0807429242204</v>
+        <v>22.0930412726178</v>
       </c>
       <c r="C11" t="n">
-        <v>18.1301185165159</v>
+        <v>22.8594162686738</v>
       </c>
       <c r="D11" t="n">
-        <v>20.5565333585276</v>
+        <v>22.0640315003304</v>
       </c>
       <c r="E11" t="n">
-        <v>13.8557038280747</v>
+        <v>26.6499882476119</v>
       </c>
       <c r="F11" t="n">
-        <v>21.8985082241482</v>
+        <v>22.4304798715492</v>
       </c>
       <c r="G11" t="n">
-        <v>22.1058503276506</v>
+        <v>22.4022646254553</v>
       </c>
       <c r="H11" t="n">
-        <v>23.409174384043</v>
+        <v>24.6527626334912</v>
       </c>
       <c r="I11" t="n">
-        <v>14.7531378395069</v>
+        <v>19.2619940400769</v>
       </c>
       <c r="J11" t="n">
-        <v>16.8300371526334</v>
+        <v>27.4004307746952</v>
       </c>
       <c r="K11" t="n">
-        <v>17.470200568159</v>
+        <v>26.6210776153138</v>
+      </c>
+      <c r="L11" t="n">
+        <v>18.117409553373</v>
+      </c>
+      <c r="M11" t="n">
+        <v>19.4898003682742</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4405964992571</v>
+        <v>20.015095016604</v>
       </c>
       <c r="C12" t="n">
-        <v>19.5032342531731</v>
+        <v>19.3882092813984</v>
       </c>
       <c r="D12" t="n">
-        <v>18.1340693000846</v>
+        <v>17.9932940424068</v>
       </c>
       <c r="E12" t="n">
-        <v>17.9074905953698</v>
+        <v>17.2070773005027</v>
       </c>
       <c r="F12" t="n">
-        <v>17.2802396808452</v>
+        <v>21.4595760485304</v>
       </c>
       <c r="G12" t="n">
-        <v>18.9822379577424</v>
+        <v>18.764514219274</v>
       </c>
       <c r="H12" t="n">
-        <v>16.4092927572937</v>
+        <v>20.5530853093451</v>
       </c>
       <c r="I12" t="n">
-        <v>21.1349772681608</v>
+        <v>19.8257953106665</v>
       </c>
       <c r="J12" t="n">
-        <v>18.4656223614551</v>
+        <v>17.4650896310644</v>
       </c>
       <c r="K12" t="n">
-        <v>17.3339264592139</v>
+        <v>22.2080116988731</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.6982669784188</v>
+      </c>
+      <c r="M12" t="n">
+        <v>19.8328940445156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>14.899947886219</v>
+        <v>22.0109976921169</v>
       </c>
       <c r="C13" t="n">
-        <v>16.9096404650099</v>
+        <v>21.580709502465</v>
       </c>
       <c r="D13" t="n">
-        <v>17.8697720828647</v>
+        <v>16.2310123056321</v>
       </c>
       <c r="E13" t="n">
-        <v>16.5063298627075</v>
+        <v>23.8802142953319</v>
       </c>
       <c r="F13" t="n">
-        <v>14.976197956017</v>
+        <v>20.4156894454857</v>
       </c>
       <c r="G13" t="n">
-        <v>20.4540050075485</v>
+        <v>18.7508418097875</v>
       </c>
       <c r="H13" t="n">
-        <v>18.8106938394726</v>
+        <v>21.3082318850397</v>
       </c>
       <c r="I13" t="n">
-        <v>10.9954433093976</v>
+        <v>25.598767055523</v>
       </c>
       <c r="J13" t="n">
-        <v>15.6095874202112</v>
+        <v>23.1325541677688</v>
       </c>
       <c r="K13" t="n">
-        <v>19.123101076186</v>
+        <v>22.7785789124934</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20.917946471881</v>
+      </c>
+      <c r="M13" t="n">
+        <v>22.6001079274207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>17.6077165370507</v>
+        <v>20.7211090695344</v>
       </c>
       <c r="C14" t="n">
-        <v>17.6368251732405</v>
+        <v>18.6445624699689</v>
       </c>
       <c r="D14" t="n">
-        <v>17.8625054580574</v>
+        <v>19.229049813804</v>
       </c>
       <c r="E14" t="n">
-        <v>14.1104443525526</v>
+        <v>17.6093550892985</v>
       </c>
       <c r="F14" t="n">
-        <v>16.3025568937356</v>
+        <v>20.3840806845729</v>
       </c>
       <c r="G14" t="n">
-        <v>19.0113244531712</v>
+        <v>22.5959254593981</v>
       </c>
       <c r="H14" t="n">
-        <v>16.3120965369003</v>
+        <v>16.2528708999181</v>
       </c>
       <c r="I14" t="n">
-        <v>13.4188635575904</v>
+        <v>17.1771070147337</v>
       </c>
       <c r="J14" t="n">
-        <v>17.1452470883948</v>
+        <v>20.8721426767043</v>
       </c>
       <c r="K14" t="n">
-        <v>17.6301295558637</v>
+        <v>27.7169056820468</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16.9662124892163</v>
+      </c>
+      <c r="M14" t="n">
+        <v>20.3998372326731</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_mean.xlsx
+++ b/xlsx/country_comparison/split_many_mean.xlsx
@@ -470,7 +470,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>18.5820802110275</v>
+        <v>18.5840386333021</v>
       </c>
       <c r="C2" t="n">
         <v>19.5433388869069</v>
@@ -497,13 +497,13 @@
         <v>20.9791784497811</v>
       </c>
       <c r="K2" t="n">
-        <v>14.7168447541269</v>
+        <v>14.7145599857929</v>
       </c>
       <c r="L2" t="n">
         <v>21.2906279684643</v>
       </c>
       <c r="M2" t="n">
-        <v>18.8157927911583</v>
+        <v>18.8176682846185</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +511,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>18.2775615098406</v>
+        <v>18.2790863468141</v>
       </c>
       <c r="C3" t="n">
         <v>18.6833061988999</v>
@@ -538,13 +538,13 @@
         <v>18.7170006502281</v>
       </c>
       <c r="K3" t="n">
-        <v>17.7046170722847</v>
+        <v>17.7049808040103</v>
       </c>
       <c r="L3" t="n">
         <v>19.6336316839714</v>
       </c>
       <c r="M3" t="n">
-        <v>17.7105595537485</v>
+        <v>17.7140126023854</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>16.7238653560827</v>
+        <v>16.7223157348188</v>
       </c>
       <c r="C4" t="n">
         <v>16.4332355712248</v>
@@ -579,13 +579,13 @@
         <v>17.639977096944</v>
       </c>
       <c r="K4" t="n">
-        <v>15.9777699018776</v>
+        <v>15.9779234610467</v>
       </c>
       <c r="L4" t="n">
         <v>20.5511153680026</v>
       </c>
       <c r="M4" t="n">
-        <v>16.7227830705548</v>
+        <v>16.7126947567179</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2417157402536</v>
+        <v>16.2405917484416</v>
       </c>
       <c r="C5" t="n">
         <v>17.2041871605458</v>
@@ -620,13 +620,13 @@
         <v>16.9879596586077</v>
       </c>
       <c r="K5" t="n">
-        <v>14.0631639305587</v>
+        <v>14.0638042866307</v>
       </c>
       <c r="L5" t="n">
         <v>19.2949694188511</v>
       </c>
       <c r="M5" t="n">
-        <v>15.5582453607054</v>
+        <v>15.5556817545784</v>
       </c>
     </row>
     <row r="6">
@@ -634,7 +634,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>22.3896144998599</v>
+        <v>22.3891837320092</v>
       </c>
       <c r="C6" t="n">
         <v>22.7317034341977</v>
@@ -661,13 +661,13 @@
         <v>25.1837935240495</v>
       </c>
       <c r="K6" t="n">
-        <v>22.5860448319305</v>
+        <v>22.5864800454045</v>
       </c>
       <c r="L6" t="n">
         <v>21.2819820906125</v>
       </c>
       <c r="M6" t="n">
-        <v>22.0326679158818</v>
+        <v>22.0347618056938</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>27.26497665342</v>
+        <v>27.2619378219767</v>
       </c>
       <c r="C7" t="n">
         <v>28.8568129063177</v>
@@ -702,13 +702,13 @@
         <v>27.1748398222642</v>
       </c>
       <c r="K7" t="n">
-        <v>24.4232506772242</v>
+        <v>24.4220598513594</v>
       </c>
       <c r="L7" t="n">
         <v>23.700071089594</v>
       </c>
       <c r="M7" t="n">
-        <v>26.8180514481533</v>
+        <v>26.8106957247318</v>
       </c>
     </row>
     <row r="8">
@@ -716,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2192321563112</v>
+        <v>18.2166748796038</v>
       </c>
       <c r="C8" t="n">
         <v>17.1411131812487</v>
@@ -743,13 +743,13 @@
         <v>16.7816546970272</v>
       </c>
       <c r="K8" t="n">
-        <v>16.8517310459241</v>
+        <v>16.8533849022249</v>
       </c>
       <c r="L8" t="n">
         <v>23.1517843022227</v>
       </c>
       <c r="M8" t="n">
-        <v>19.584184449734</v>
+        <v>19.5803155940044</v>
       </c>
     </row>
     <row r="9">
@@ -757,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>19.5996211281575</v>
+        <v>19.6007444831646</v>
       </c>
       <c r="C9" t="n">
         <v>17.9211815959613</v>
@@ -784,13 +784,13 @@
         <v>15.6647990283249</v>
       </c>
       <c r="K9" t="n">
-        <v>20.432296587161</v>
+        <v>20.4332656963451</v>
       </c>
       <c r="L9" t="n">
         <v>17.4729152319607</v>
       </c>
       <c r="M9" t="n">
-        <v>21.6080362395842</v>
+        <v>21.6195085814997</v>
       </c>
     </row>
     <row r="10">
@@ -798,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8023011308014</v>
+        <v>17.8047298622694</v>
       </c>
       <c r="C10" t="n">
         <v>18.8833651056779</v>
@@ -825,13 +825,13 @@
         <v>15.1781294395678</v>
       </c>
       <c r="K10" t="n">
-        <v>12.6212552742962</v>
+        <v>12.6185533946707</v>
       </c>
       <c r="L10" t="n">
         <v>17.6571262524162</v>
       </c>
       <c r="M10" t="n">
-        <v>18.4019498076807</v>
+        <v>18.3972871681866</v>
       </c>
     </row>
     <row r="11">
@@ -839,7 +839,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0930412726178</v>
+        <v>22.0855225713625</v>
       </c>
       <c r="C11" t="n">
         <v>22.8594162686738</v>
@@ -866,13 +866,13 @@
         <v>27.4004307746952</v>
       </c>
       <c r="K11" t="n">
-        <v>26.6210776153138</v>
+        <v>26.6167941290284</v>
       </c>
       <c r="L11" t="n">
         <v>18.117409553373</v>
       </c>
       <c r="M11" t="n">
-        <v>19.4898003682742</v>
+        <v>19.4771305219559</v>
       </c>
     </row>
     <row r="12">
@@ -880,7 +880,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>20.015095016604</v>
+        <v>20.0220004968278</v>
       </c>
       <c r="C12" t="n">
         <v>19.3882092813984</v>
@@ -907,13 +907,13 @@
         <v>17.4650896310644</v>
       </c>
       <c r="K12" t="n">
-        <v>22.2080116988731</v>
+        <v>22.212370984965</v>
       </c>
       <c r="L12" t="n">
         <v>18.6982669784188</v>
       </c>
       <c r="M12" t="n">
-        <v>19.8328940445156</v>
+        <v>19.8442006813357</v>
       </c>
     </row>
     <row r="13">
@@ -921,7 +921,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>22.0109976921169</v>
+        <v>22.0043105976072</v>
       </c>
       <c r="C13" t="n">
         <v>21.580709502465</v>
@@ -948,13 +948,13 @@
         <v>23.1325541677688</v>
       </c>
       <c r="K13" t="n">
-        <v>22.7785789124934</v>
+        <v>22.7819104384524</v>
       </c>
       <c r="L13" t="n">
         <v>20.917946471881</v>
       </c>
       <c r="M13" t="n">
-        <v>22.6001079274207</v>
+        <v>22.5912667222287</v>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7211090695344</v>
+        <v>20.7270775428518</v>
       </c>
       <c r="C14" t="n">
         <v>18.6445624699689</v>
@@ -989,13 +989,13 @@
         <v>20.8721426767043</v>
       </c>
       <c r="K14" t="n">
-        <v>27.7169056820468</v>
+        <v>27.7072549511488</v>
       </c>
       <c r="L14" t="n">
         <v>16.9662124892163</v>
       </c>
       <c r="M14" t="n">
-        <v>20.3998372326731</v>
+        <v>20.4230604270162</v>
       </c>
     </row>
   </sheetData>
